--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Fn1-Mag.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Fn1-Mag.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -531,7 +531,7 @@
         <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -540,46 +540,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>24.721787</v>
+        <v>29.20950566666667</v>
       </c>
       <c r="H2">
-        <v>74.165361</v>
+        <v>87.628517</v>
       </c>
       <c r="I2">
-        <v>0.0134084740040759</v>
+        <v>0.01829497698069002</v>
       </c>
       <c r="J2">
-        <v>0.01345828544885583</v>
+        <v>0.01840828041918582</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.00535</v>
+        <v>0.5428959999999999</v>
       </c>
       <c r="N2">
-        <v>0.01605</v>
+        <v>1.628688</v>
       </c>
       <c r="O2">
-        <v>0.003377959937395142</v>
+        <v>0.5479462378252897</v>
       </c>
       <c r="P2">
-        <v>0.004244941312694542</v>
+        <v>0.5500703846704619</v>
       </c>
       <c r="Q2">
-        <v>0.13226156045</v>
+        <v>15.85772378841067</v>
       </c>
       <c r="R2">
-        <v>1.19035404405</v>
+        <v>142.719514095696</v>
       </c>
       <c r="S2">
-        <v>4.529328800737261E-05</v>
+        <v>0.01002466380766937</v>
       </c>
       <c r="T2">
-        <v>5.712963189988393E-05</v>
+        <v>0.01012584989130328</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,7 +593,7 @@
         <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E3">
         <v>3</v>
@@ -602,46 +602,46 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>24.721787</v>
+        <v>29.20950566666667</v>
       </c>
       <c r="H3">
-        <v>74.165361</v>
+        <v>87.628517</v>
       </c>
       <c r="I3">
-        <v>0.0134084740040759</v>
+        <v>0.01829497698069002</v>
       </c>
       <c r="J3">
-        <v>0.01345828544885583</v>
+        <v>0.01840828041918582</v>
       </c>
       <c r="K3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M3">
-        <v>0.3904073333333333</v>
+        <v>0.011478</v>
       </c>
       <c r="N3">
-        <v>1.171222</v>
+        <v>0.022956</v>
       </c>
       <c r="O3">
-        <v>0.2465009964981815</v>
+        <v>0.01158477299106767</v>
       </c>
       <c r="P3">
-        <v>0.3097675173916964</v>
+        <v>0.007753121377756283</v>
       </c>
       <c r="Q3">
-        <v>9.651566937904667</v>
+        <v>0.335266706042</v>
       </c>
       <c r="R3">
-        <v>86.86410244114201</v>
+        <v>2.011600236252</v>
       </c>
       <c r="S3">
-        <v>0.003305202203524671</v>
+        <v>0.0002119431551981026</v>
       </c>
       <c r="T3">
-        <v>0.004168939671840863</v>
+        <v>0.000142721632445722</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,7 +655,7 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -664,51 +664,51 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>24.721787</v>
+        <v>29.20950566666667</v>
       </c>
       <c r="H4">
-        <v>74.165361</v>
+        <v>87.628517</v>
       </c>
       <c r="I4">
-        <v>0.0134084740040759</v>
+        <v>0.01829497698069002</v>
       </c>
       <c r="J4">
-        <v>0.01345828544885583</v>
+        <v>0.01840828041918582</v>
       </c>
       <c r="K4">
         <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.9704175</v>
+        <v>0.4364093333333334</v>
       </c>
       <c r="N4">
-        <v>1.940835</v>
+        <v>1.309228</v>
       </c>
       <c r="O4">
-        <v>0.6127161565508693</v>
+        <v>0.4404689891836426</v>
       </c>
       <c r="P4">
-        <v>0.5133165528114338</v>
+        <v>0.4421764939517818</v>
       </c>
       <c r="Q4">
-        <v>23.9904547360725</v>
+        <v>12.74730089498622</v>
       </c>
       <c r="R4">
-        <v>143.942728416435</v>
+        <v>114.725708054876</v>
       </c>
       <c r="S4">
-        <v>0.008215588656989629</v>
+        <v>0.008058370017822543</v>
       </c>
       <c r="T4">
-        <v>0.006908360693358955</v>
+        <v>0.008139708895436821</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
         <v>25</v>
@@ -717,7 +717,7 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -726,46 +726,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>24.721787</v>
+        <v>1458.280985666667</v>
       </c>
       <c r="H5">
-        <v>74.165361</v>
+        <v>4374.842957</v>
       </c>
       <c r="I5">
-        <v>0.0134084740040759</v>
+        <v>0.913374480506715</v>
       </c>
       <c r="J5">
-        <v>0.01345828544885583</v>
+        <v>0.9190311407684336</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.2176213333333333</v>
+        <v>0.5428959999999999</v>
       </c>
       <c r="N5">
-        <v>0.652864</v>
+        <v>1.628688</v>
       </c>
       <c r="O5">
-        <v>0.1374048870135541</v>
+        <v>0.5479462378252897</v>
       </c>
       <c r="P5">
-        <v>0.1726709884841751</v>
+        <v>0.5500703846704619</v>
       </c>
       <c r="Q5">
-        <v>5.379988249322667</v>
+        <v>791.6949139944905</v>
       </c>
       <c r="R5">
-        <v>48.419894243904</v>
+        <v>7125.254225950415</v>
       </c>
       <c r="S5">
-        <v>0.001842389855554225</v>
+        <v>0.5004801103192829</v>
       </c>
       <c r="T5">
-        <v>0.002323855451756126</v>
+        <v>0.5055318131266257</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,7 +779,7 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -794,40 +794,40 @@
         <v>4374.842957</v>
       </c>
       <c r="I6">
-        <v>0.7909348416823457</v>
+        <v>0.913374480506715</v>
       </c>
       <c r="J6">
-        <v>0.7938731034993884</v>
+        <v>0.9190311407684336</v>
       </c>
       <c r="K6">
         <v>1</v>
       </c>
       <c r="L6">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="M6">
-        <v>0.00535</v>
+        <v>0.011478</v>
       </c>
       <c r="N6">
-        <v>0.01605</v>
+        <v>0.022956</v>
       </c>
       <c r="O6">
-        <v>0.003377959937395142</v>
+        <v>0.01158477299106767</v>
       </c>
       <c r="P6">
-        <v>0.004244941312694542</v>
+        <v>0.007753121377756283</v>
       </c>
       <c r="Q6">
-        <v>7.801803273316666</v>
+        <v>16.738149153482</v>
       </c>
       <c r="R6">
-        <v>70.21622945984998</v>
+        <v>100.428894920892</v>
       </c>
       <c r="S6">
-        <v>0.002671746208292933</v>
+        <v>0.01058123601250466</v>
       </c>
       <c r="T6">
-        <v>0.003369944734081584</v>
+        <v>0.007125359984315486</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,7 +841,7 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -856,45 +856,45 @@
         <v>4374.842957</v>
       </c>
       <c r="I7">
-        <v>0.7909348416823457</v>
+        <v>0.913374480506715</v>
       </c>
       <c r="J7">
-        <v>0.7938731034993884</v>
+        <v>0.9190311407684336</v>
       </c>
       <c r="K7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>0.3904073333333333</v>
+        <v>0.4364093333333334</v>
       </c>
       <c r="N7">
-        <v>1.171222</v>
+        <v>1.309228</v>
       </c>
       <c r="O7">
-        <v>0.2465009964981815</v>
+        <v>0.4404689891836426</v>
       </c>
       <c r="P7">
-        <v>0.3097675173916964</v>
+        <v>0.4421764939517818</v>
       </c>
       <c r="Q7">
-        <v>569.3235908648281</v>
+        <v>636.4074327674663</v>
       </c>
       <c r="R7">
-        <v>5123.912317783454</v>
+        <v>5727.666894907196</v>
       </c>
       <c r="S7">
-        <v>0.1949662266398297</v>
+        <v>0.4023131341749274</v>
       </c>
       <c r="T7">
-        <v>0.2459161003950469</v>
+        <v>0.4063739676574924</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
         <v>25</v>
@@ -903,7 +903,7 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -912,51 +912,51 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1458.280985666667</v>
+        <v>57.98602933333333</v>
       </c>
       <c r="H8">
-        <v>4374.842957</v>
+        <v>173.958088</v>
       </c>
       <c r="I8">
-        <v>0.7909348416823457</v>
+        <v>0.03631876156896331</v>
       </c>
       <c r="J8">
-        <v>0.7938731034993884</v>
+        <v>0.03654368891224535</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.9704175</v>
+        <v>0.5428959999999999</v>
       </c>
       <c r="N8">
-        <v>1.940835</v>
+        <v>1.628688</v>
       </c>
       <c r="O8">
-        <v>0.6127161565508693</v>
+        <v>0.5479462378252897</v>
       </c>
       <c r="P8">
-        <v>0.5133165528114338</v>
+        <v>0.5500703846704619</v>
       </c>
       <c r="Q8">
-        <v>1415.141388408182</v>
+        <v>31.48038338094933</v>
       </c>
       <c r="R8">
-        <v>8490.848330449095</v>
+        <v>283.3234504285439</v>
       </c>
       <c r="S8">
-        <v>0.4846185562777772</v>
+        <v>0.01990072876418716</v>
       </c>
       <c r="T8">
-        <v>0.4075082048580207</v>
+        <v>0.02010160101723649</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
         <v>25</v>
@@ -965,7 +965,7 @@
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -974,46 +974,46 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1458.280985666667</v>
+        <v>57.98602933333333</v>
       </c>
       <c r="H9">
-        <v>4374.842957</v>
+        <v>173.958088</v>
       </c>
       <c r="I9">
-        <v>0.7909348416823457</v>
+        <v>0.03631876156896331</v>
       </c>
       <c r="J9">
-        <v>0.7938731034993884</v>
+        <v>0.03654368891224535</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L9">
-        <v>0.6666666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="M9">
-        <v>0.2176213333333333</v>
+        <v>0.011478</v>
       </c>
       <c r="N9">
-        <v>0.652864</v>
+        <v>0.022956</v>
       </c>
       <c r="O9">
-        <v>0.1374048870135541</v>
+        <v>0.01158477299106767</v>
       </c>
       <c r="P9">
-        <v>0.1726709884841751</v>
+        <v>0.007753121377756283</v>
       </c>
       <c r="Q9">
-        <v>317.3530524754275</v>
+        <v>0.665563644688</v>
       </c>
       <c r="R9">
-        <v>2856.177472278848</v>
+        <v>3.993381868128</v>
       </c>
       <c r="S9">
-        <v>0.108678312556446</v>
+        <v>0.0004207446080931528</v>
       </c>
       <c r="T9">
-        <v>0.1370788535122393</v>
+        <v>0.0002833276557276046</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,7 +1027,7 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1036,51 +1036,51 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>60.09979000000001</v>
+        <v>57.98602933333333</v>
       </c>
       <c r="H10">
-        <v>180.29937</v>
+        <v>173.958088</v>
       </c>
       <c r="I10">
-        <v>0.03259661091107292</v>
+        <v>0.03631876156896331</v>
       </c>
       <c r="J10">
-        <v>0.03271770480169137</v>
+        <v>0.03654368891224535</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>0.00535</v>
+        <v>0.4364093333333334</v>
       </c>
       <c r="N10">
-        <v>0.01605</v>
+        <v>1.309228</v>
       </c>
       <c r="O10">
-        <v>0.003377959937395142</v>
+        <v>0.4404689891836426</v>
       </c>
       <c r="P10">
-        <v>0.004244941312694542</v>
+        <v>0.4421764939517818</v>
       </c>
       <c r="Q10">
-        <v>0.3215338765</v>
+        <v>25.30564440400711</v>
       </c>
       <c r="R10">
-        <v>2.8938048885</v>
+        <v>227.750799636064</v>
       </c>
       <c r="S10">
-        <v>0.0001101100457524617</v>
+        <v>0.01599728819668299</v>
       </c>
       <c r="T10">
-        <v>0.0001388847367692443</v>
+        <v>0.01615876023928125</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
@@ -1092,22 +1092,22 @@
         <v>22</v>
       </c>
       <c r="E11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>60.09979000000001</v>
+        <v>29.481085</v>
       </c>
       <c r="H11">
-        <v>180.29937</v>
+        <v>58.96217</v>
       </c>
       <c r="I11">
-        <v>0.03259661091107292</v>
+        <v>0.01846507700595112</v>
       </c>
       <c r="J11">
-        <v>0.03271770480169137</v>
+        <v>0.01238628926567028</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,33 +1116,33 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.3904073333333333</v>
+        <v>0.5428959999999999</v>
       </c>
       <c r="N11">
-        <v>1.171222</v>
+        <v>1.628688</v>
       </c>
       <c r="O11">
-        <v>0.2465009964981815</v>
+        <v>0.5479462378252897</v>
       </c>
       <c r="P11">
-        <v>0.3097675173916964</v>
+        <v>0.5500703846704619</v>
       </c>
       <c r="Q11">
-        <v>23.46339874779333</v>
+        <v>16.00516312216</v>
       </c>
       <c r="R11">
-        <v>211.17058873014</v>
+        <v>96.03097873295999</v>
       </c>
       <c r="S11">
-        <v>0.00803509707204297</v>
+        <v>0.01011786947656518</v>
       </c>
       <c r="T11">
-        <v>0.01013488219117432</v>
+        <v>0.006813330901006862</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B12" t="s">
         <v>25</v>
@@ -1154,57 +1154,57 @@
         <v>23</v>
       </c>
       <c r="E12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>60.09979000000001</v>
+        <v>29.481085</v>
       </c>
       <c r="H12">
-        <v>180.29937</v>
+        <v>58.96217</v>
       </c>
       <c r="I12">
-        <v>0.03259661091107292</v>
+        <v>0.01846507700595112</v>
       </c>
       <c r="J12">
-        <v>0.03271770480169137</v>
+        <v>0.01238628926567028</v>
       </c>
       <c r="K12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M12">
-        <v>0.9704175</v>
+        <v>0.011478</v>
       </c>
       <c r="N12">
-        <v>1.940835</v>
+        <v>0.022956</v>
       </c>
       <c r="O12">
-        <v>0.6127161565508693</v>
+        <v>0.01158477299106767</v>
       </c>
       <c r="P12">
-        <v>0.5133165528114338</v>
+        <v>0.007753121377756283</v>
       </c>
       <c r="Q12">
-        <v>58.32188796232501</v>
+        <v>0.33838389363</v>
       </c>
       <c r="R12">
-        <v>349.93132777395</v>
+        <v>1.35353557452</v>
       </c>
       <c r="S12">
-        <v>0.01997247015401673</v>
+        <v>0.0002139137253765274</v>
       </c>
       <c r="T12">
-        <v>0.01679453944470631</v>
+        <v>9.60324040967414E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B13" t="s">
         <v>25</v>
@@ -1216,22 +1216,22 @@
         <v>24</v>
       </c>
       <c r="E13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>60.09979000000001</v>
+        <v>29.481085</v>
       </c>
       <c r="H13">
-        <v>180.29937</v>
+        <v>58.96217</v>
       </c>
       <c r="I13">
-        <v>0.03259661091107292</v>
+        <v>0.01846507700595112</v>
       </c>
       <c r="J13">
-        <v>0.03271770480169137</v>
+        <v>0.01238628926567028</v>
       </c>
       <c r="K13">
         <v>2</v>
@@ -1240,33 +1240,33 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M13">
-        <v>0.2176213333333333</v>
+        <v>0.4364093333333334</v>
       </c>
       <c r="N13">
-        <v>0.652864</v>
+        <v>1.309228</v>
       </c>
       <c r="O13">
-        <v>0.1374048870135541</v>
+        <v>0.4404689891836426</v>
       </c>
       <c r="P13">
-        <v>0.1726709884841751</v>
+        <v>0.4421764939517818</v>
       </c>
       <c r="Q13">
-        <v>13.07899643285334</v>
+        <v>12.86582065079334</v>
       </c>
       <c r="R13">
-        <v>117.71096789568</v>
+        <v>77.19492390476</v>
       </c>
       <c r="S13">
-        <v>0.004478933639260757</v>
+        <v>0.008133293804009413</v>
       </c>
       <c r="T13">
-        <v>0.00564939842904149</v>
+        <v>0.005476925960566673</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B14" t="s">
         <v>25</v>
@@ -1275,60 +1275,60 @@
         <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>20.472042</v>
+        <v>21.628479</v>
       </c>
       <c r="H14">
-        <v>40.944084</v>
+        <v>64.885437</v>
       </c>
       <c r="I14">
-        <v>0.01110351945704208</v>
+        <v>0.01354670393768061</v>
       </c>
       <c r="J14">
-        <v>0.00742984544919738</v>
+        <v>0.01363060063446486</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M14">
-        <v>0.00535</v>
+        <v>0.5428959999999999</v>
       </c>
       <c r="N14">
-        <v>0.01605</v>
+        <v>1.628688</v>
       </c>
       <c r="O14">
-        <v>0.003377959937395142</v>
+        <v>0.5479462378252897</v>
       </c>
       <c r="P14">
-        <v>0.004244941312694542</v>
+        <v>0.5500703846704619</v>
       </c>
       <c r="Q14">
-        <v>0.1095254247</v>
+        <v>11.742014735184</v>
       </c>
       <c r="R14">
-        <v>0.6571525482</v>
+        <v>105.678132616656</v>
       </c>
       <c r="S14">
-        <v>3.750724388997561E-05</v>
+        <v>0.007422865457585128</v>
       </c>
       <c r="T14">
-        <v>3.15392578942335E-05</v>
+        <v>0.007497789734289529</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B15" t="s">
         <v>25</v>
@@ -1337,60 +1337,60 @@
         <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>20.472042</v>
+        <v>21.628479</v>
       </c>
       <c r="H15">
-        <v>40.944084</v>
+        <v>64.885437</v>
       </c>
       <c r="I15">
-        <v>0.01110351945704208</v>
+        <v>0.01354670393768061</v>
       </c>
       <c r="J15">
-        <v>0.00742984544919738</v>
+        <v>0.01363060063446486</v>
       </c>
       <c r="K15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L15">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M15">
-        <v>0.3904073333333333</v>
+        <v>0.011478</v>
       </c>
       <c r="N15">
-        <v>1.171222</v>
+        <v>0.022956</v>
       </c>
       <c r="O15">
-        <v>0.2465009964981815</v>
+        <v>0.01158477299106767</v>
       </c>
       <c r="P15">
-        <v>0.3097675173916964</v>
+        <v>0.007753121377756283</v>
       </c>
       <c r="Q15">
-        <v>7.992435325108</v>
+        <v>0.248251681962</v>
       </c>
       <c r="R15">
-        <v>47.954611950648</v>
+        <v>1.489510091772</v>
       </c>
       <c r="S15">
-        <v>0.00273702861079782</v>
+        <v>0.0001569354898952325</v>
       </c>
       <c r="T15">
-        <v>0.002301524779401866</v>
+        <v>0.0001056797011707279</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B16" t="s">
         <v>25</v>
@@ -1399,365 +1399,55 @@
         <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>20.472042</v>
+        <v>21.628479</v>
       </c>
       <c r="H16">
-        <v>40.944084</v>
+        <v>64.885437</v>
       </c>
       <c r="I16">
-        <v>0.01110351945704208</v>
+        <v>0.01354670393768061</v>
       </c>
       <c r="J16">
-        <v>0.00742984544919738</v>
+        <v>0.01363060063446486</v>
       </c>
       <c r="K16">
         <v>2</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M16">
-        <v>0.9704175</v>
+        <v>0.4364093333333334</v>
       </c>
       <c r="N16">
-        <v>1.940835</v>
+        <v>1.309228</v>
       </c>
       <c r="O16">
-        <v>0.6127161565508693</v>
+        <v>0.4404689891836426</v>
       </c>
       <c r="P16">
-        <v>0.5133165528114338</v>
+        <v>0.4421764939517818</v>
       </c>
       <c r="Q16">
-        <v>19.866427817535</v>
+        <v>9.438870101404</v>
       </c>
       <c r="R16">
-        <v>79.46571127014001</v>
+        <v>84.949830912636</v>
       </c>
       <c r="S16">
-        <v>0.006803305765906618</v>
+        <v>0.00596690299020025</v>
       </c>
       <c r="T16">
-        <v>0.003813862653903718</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20">
-      <c r="A17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" t="s">
-        <v>25</v>
-      </c>
-      <c r="C17" t="s">
-        <v>26</v>
-      </c>
-      <c r="D17" t="s">
-        <v>24</v>
-      </c>
-      <c r="E17">
-        <v>2</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17">
-        <v>20.472042</v>
-      </c>
-      <c r="H17">
-        <v>40.944084</v>
-      </c>
-      <c r="I17">
-        <v>0.01110351945704208</v>
-      </c>
-      <c r="J17">
-        <v>0.00742984544919738</v>
-      </c>
-      <c r="K17">
-        <v>2</v>
-      </c>
-      <c r="L17">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M17">
-        <v>0.2176213333333333</v>
-      </c>
-      <c r="N17">
-        <v>0.652864</v>
-      </c>
-      <c r="O17">
-        <v>0.1374048870135541</v>
-      </c>
-      <c r="P17">
-        <v>0.1726709884841751</v>
-      </c>
-      <c r="Q17">
-        <v>4.455153076096001</v>
-      </c>
-      <c r="R17">
-        <v>26.730918456576</v>
-      </c>
-      <c r="S17">
-        <v>0.001525677836447666</v>
-      </c>
-      <c r="T17">
-        <v>0.001282918757997561</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20">
-      <c r="A18" t="s">
-        <v>24</v>
-      </c>
-      <c r="B18" t="s">
-        <v>25</v>
-      </c>
-      <c r="C18" t="s">
-        <v>26</v>
-      </c>
-      <c r="D18" t="s">
-        <v>20</v>
-      </c>
-      <c r="E18">
-        <v>3</v>
-      </c>
-      <c r="F18">
-        <v>1</v>
-      </c>
-      <c r="G18">
-        <v>280.168911</v>
-      </c>
-      <c r="H18">
-        <v>840.5067330000001</v>
-      </c>
-      <c r="I18">
-        <v>0.1519565539454633</v>
-      </c>
-      <c r="J18">
-        <v>0.152521060800867</v>
-      </c>
-      <c r="K18">
-        <v>1</v>
-      </c>
-      <c r="L18">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M18">
-        <v>0.00535</v>
-      </c>
-      <c r="N18">
-        <v>0.01605</v>
-      </c>
-      <c r="O18">
-        <v>0.003377959937395142</v>
-      </c>
-      <c r="P18">
-        <v>0.004244941312694542</v>
-      </c>
-      <c r="Q18">
-        <v>1.49890367385</v>
-      </c>
-      <c r="R18">
-        <v>13.49013306465</v>
-      </c>
-      <c r="S18">
-        <v>0.0005133031514523989</v>
-      </c>
-      <c r="T18">
-        <v>0.0006474429520495966</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20">
-      <c r="A19" t="s">
-        <v>24</v>
-      </c>
-      <c r="B19" t="s">
-        <v>25</v>
-      </c>
-      <c r="C19" t="s">
-        <v>26</v>
-      </c>
-      <c r="D19" t="s">
-        <v>22</v>
-      </c>
-      <c r="E19">
-        <v>3</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19">
-        <v>280.168911</v>
-      </c>
-      <c r="H19">
-        <v>840.5067330000001</v>
-      </c>
-      <c r="I19">
-        <v>0.1519565539454633</v>
-      </c>
-      <c r="J19">
-        <v>0.152521060800867</v>
-      </c>
-      <c r="K19">
-        <v>3</v>
-      </c>
-      <c r="L19">
-        <v>1</v>
-      </c>
-      <c r="M19">
-        <v>0.3904073333333333</v>
-      </c>
-      <c r="N19">
-        <v>1.171222</v>
-      </c>
-      <c r="O19">
-        <v>0.2465009964981815</v>
-      </c>
-      <c r="P19">
-        <v>0.3097675173916964</v>
-      </c>
-      <c r="Q19">
-        <v>109.379997426414</v>
-      </c>
-      <c r="R19">
-        <v>984.419976837726</v>
-      </c>
-      <c r="S19">
-        <v>0.03745744197198639</v>
-      </c>
-      <c r="T19">
-        <v>0.04724607035423257</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20">
-      <c r="A20" t="s">
-        <v>24</v>
-      </c>
-      <c r="B20" t="s">
-        <v>25</v>
-      </c>
-      <c r="C20" t="s">
-        <v>26</v>
-      </c>
-      <c r="D20" t="s">
-        <v>23</v>
-      </c>
-      <c r="E20">
-        <v>3</v>
-      </c>
-      <c r="F20">
-        <v>1</v>
-      </c>
-      <c r="G20">
-        <v>280.168911</v>
-      </c>
-      <c r="H20">
-        <v>840.5067330000001</v>
-      </c>
-      <c r="I20">
-        <v>0.1519565539454633</v>
-      </c>
-      <c r="J20">
-        <v>0.152521060800867</v>
-      </c>
-      <c r="K20">
-        <v>2</v>
-      </c>
-      <c r="L20">
-        <v>1</v>
-      </c>
-      <c r="M20">
-        <v>0.9704175</v>
-      </c>
-      <c r="N20">
-        <v>1.940835</v>
-      </c>
-      <c r="O20">
-        <v>0.6127161565508693</v>
-      </c>
-      <c r="P20">
-        <v>0.5133165528114338</v>
-      </c>
-      <c r="Q20">
-        <v>271.8808141903426</v>
-      </c>
-      <c r="R20">
-        <v>1631.284885142055</v>
-      </c>
-      <c r="S20">
-        <v>0.09310623569617914</v>
-      </c>
-      <c r="T20">
-        <v>0.07829158516144417</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20">
-      <c r="A21" t="s">
-        <v>24</v>
-      </c>
-      <c r="B21" t="s">
-        <v>25</v>
-      </c>
-      <c r="C21" t="s">
-        <v>26</v>
-      </c>
-      <c r="D21" t="s">
-        <v>24</v>
-      </c>
-      <c r="E21">
-        <v>3</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21">
-        <v>280.168911</v>
-      </c>
-      <c r="H21">
-        <v>840.5067330000001</v>
-      </c>
-      <c r="I21">
-        <v>0.1519565539454633</v>
-      </c>
-      <c r="J21">
-        <v>0.152521060800867</v>
-      </c>
-      <c r="K21">
-        <v>2</v>
-      </c>
-      <c r="L21">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M21">
-        <v>0.2176213333333333</v>
-      </c>
-      <c r="N21">
-        <v>0.652864</v>
-      </c>
-      <c r="O21">
-        <v>0.1374048870135541</v>
-      </c>
-      <c r="P21">
-        <v>0.1726709884841751</v>
-      </c>
-      <c r="Q21">
-        <v>60.97073197036801</v>
-      </c>
-      <c r="R21">
-        <v>548.736587733312</v>
-      </c>
-      <c r="S21">
-        <v>0.02087957312584542</v>
-      </c>
-      <c r="T21">
-        <v>0.02633596233314068</v>
+        <v>0.006027131199004605</v>
       </c>
     </row>
   </sheetData>
